--- a/data/input/employee_absence_data_8.xlsx
+++ b/data/input/employee_absence_data_8.xlsx
@@ -464,132 +464,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8543</v>
+        <v>2532</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sra. Alexia da Paz</t>
+          <t>Pietra Sales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>10311.65</v>
+        <v>4180.35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>43819</v>
+        <v>71473</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ravy Sales</t>
+          <t>Rael Pereira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45087</v>
+        <v>45079</v>
       </c>
       <c r="G3" t="n">
-        <v>2686.62</v>
+        <v>4105.87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7248</v>
+        <v>26437</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luana da Rosa</t>
+          <t>Stephany Silva</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45091</v>
+        <v>45085</v>
       </c>
       <c r="G4" t="n">
-        <v>11603.76</v>
+        <v>2073.68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>40764</v>
+        <v>9289</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fernando Sousa</t>
+          <t>Valentina Costela</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45085</v>
+        <v>45087</v>
       </c>
       <c r="G5" t="n">
-        <v>9489.27</v>
+        <v>3371.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>59582</v>
+        <v>18061</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Srta. Emilly Jesus</t>
+          <t>Helena Novais</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,138 +598,138 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45088</v>
+        <v>45101</v>
       </c>
       <c r="G6" t="n">
-        <v>7972.66</v>
+        <v>4300.22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99284</v>
+        <v>91687</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Julia da Rocha</t>
+          <t>Eloá Silva</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45104</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>7816.68</v>
+        <v>6890.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>43909</v>
+        <v>2838</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Thales Duarte</t>
+          <t>Sr. Benicio Silva</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45102</v>
+        <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>5493.08</v>
+        <v>4238.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>28629</v>
+        <v>82708</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mariane da Mota</t>
+          <t>Dr. Cauã Albuquerque</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45096</v>
+        <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>6157.01</v>
+        <v>8259.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>49665</v>
+        <v>78451</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rhavi da Cunha</t>
+          <t>Dom da Mota</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>45084</v>
       </c>
       <c r="G10" t="n">
-        <v>2978.3</v>
+        <v>5899.55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34816</v>
+        <v>78784</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marcela Santos</t>
+          <t>Isis da Paz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>45101</v>
       </c>
       <c r="G11" t="n">
-        <v>8711.690000000001</v>
+        <v>2888.7</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_8.xlsx
+++ b/data/input/employee_absence_data_8.xlsx
@@ -464,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2532</v>
+        <v>38892</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pietra Sales</t>
+          <t>Felipe Melo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,27 +482,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45100</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>4180.35</v>
+        <v>9819.280000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>71473</v>
+        <v>73884</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rael Pereira</t>
+          <t>Lunna Pereira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,138 +511,138 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45079</v>
+        <v>45089</v>
       </c>
       <c r="G3" t="n">
-        <v>4105.87</v>
+        <v>7428.81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>26437</v>
+        <v>66692</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stephany Silva</t>
+          <t>Fernando Vasconcelos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45085</v>
+        <v>45078</v>
       </c>
       <c r="G4" t="n">
-        <v>2073.68</v>
+        <v>5016.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9289</v>
+        <v>91871</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Valentina Costela</t>
+          <t>Sr. Vitor Hugo Lima</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45087</v>
+        <v>45081</v>
       </c>
       <c r="G5" t="n">
-        <v>3371.66</v>
+        <v>7670.13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18061</v>
+        <v>41852</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Helena Novais</t>
+          <t>José Pedro Freitas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>8</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G6" t="n">
-        <v>4300.22</v>
+        <v>9332.459999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91687</v>
+        <v>33622</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Eloá Silva</t>
+          <t>Luísa da Rosa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G7" t="n">
-        <v>6890.23</v>
+        <v>4266.76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2838</v>
+        <v>42666</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sr. Benicio Silva</t>
+          <t>Sra. Eloá Almeida</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -652,26 +652,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45104</v>
+        <v>45100</v>
       </c>
       <c r="G8" t="n">
-        <v>4238.11</v>
+        <v>7321.26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>82708</v>
+        <v>68850</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. Cauã Albuquerque</t>
+          <t>Luiz Fernando Pereira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -681,75 +681,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45101</v>
+        <v>45085</v>
       </c>
       <c r="G9" t="n">
-        <v>8259.48</v>
+        <v>5559.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>78451</v>
+        <v>18199</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dom da Mota</t>
+          <t>Ryan Caldeira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45084</v>
+        <v>45102</v>
       </c>
       <c r="G10" t="n">
-        <v>5899.55</v>
+        <v>5535.86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>78784</v>
+        <v>90172</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Isis da Paz</t>
+          <t>Emilly Cavalcante</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>45101</v>
       </c>
       <c r="G11" t="n">
-        <v>2888.7</v>
+        <v>8739.07</v>
       </c>
     </row>
   </sheetData>
